--- a/Data/g7.1.xlsx
+++ b/Data/g7.1.xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -460,8 +456,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>41275</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="C2" t="n">
         <v>2305.79</v>
@@ -473,8 +471,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B3" s="2" t="n">
-        <v>41640</v>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="C3" t="n">
         <v>2343.69</v>
@@ -486,8 +486,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B4" s="2" t="n">
-        <v>42005</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="C4" t="n">
         <v>2279.35</v>
@@ -499,8 +501,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B5" s="2" t="n">
-        <v>42370</v>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="C5" t="n">
         <v>2241.86</v>
@@ -512,8 +516,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B6" s="2" t="n">
-        <v>42736</v>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="C6" t="n">
         <v>2249.75</v>
@@ -525,8 +531,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B7" s="2" t="n">
-        <v>43101</v>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="C7" t="n">
         <v>2272.89</v>
@@ -538,8 +546,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B8" s="2" t="n">
-        <v>43466</v>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="C8" t="n">
         <v>2287.39</v>
@@ -551,8 +561,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B9" s="2" t="n">
-        <v>43831</v>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="C9" t="n">
         <v>2242.29</v>
@@ -564,8 +576,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B10" s="2" t="n">
-        <v>44197</v>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="C10" t="n">
         <v>2323.99</v>
@@ -577,8 +591,10 @@
           <t>Brasil</t>
         </is>
       </c>
-      <c r="B11" s="2" t="n">
-        <v>44562</v>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="C11" t="n">
         <v>2363.02</v>
@@ -590,8 +606,10 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B12" s="2" t="n">
-        <v>41275</v>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="C12" t="n">
         <v>1439.96</v>
@@ -603,8 +621,10 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B13" s="2" t="n">
-        <v>41640</v>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="C13" t="n">
         <v>1450.6</v>
@@ -616,8 +636,10 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B14" s="2" t="n">
-        <v>42005</v>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="C14" t="n">
         <v>1414.96</v>
@@ -629,8 +651,10 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B15" s="2" t="n">
-        <v>42370</v>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="C15" t="n">
         <v>1412.34</v>
@@ -642,8 +666,10 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B16" s="2" t="n">
-        <v>42736</v>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="C16" t="n">
         <v>1408.64</v>
@@ -655,8 +681,10 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B17" s="2" t="n">
-        <v>43101</v>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="C17" t="n">
         <v>1414.34</v>
@@ -668,8 +696,10 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B18" s="2" t="n">
-        <v>43466</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="C18" t="n">
         <v>1453.09</v>
@@ -681,8 +711,10 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B19" s="2" t="n">
-        <v>43831</v>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="C19" t="n">
         <v>1411.13</v>
@@ -694,8 +726,10 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B20" s="2" t="n">
-        <v>44197</v>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="C20" t="n">
         <v>1507.49</v>
@@ -707,8 +741,10 @@
           <t>Nordeste</t>
         </is>
       </c>
-      <c r="B21" s="2" t="n">
-        <v>44562</v>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="C21" t="n">
         <v>1515.93</v>
@@ -720,8 +756,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B22" s="2" t="n">
-        <v>41275</v>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
       </c>
       <c r="C22" t="n">
         <v>1750.92</v>
@@ -733,8 +771,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B23" s="2" t="n">
-        <v>41640</v>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
       </c>
       <c r="C23" t="n">
         <v>1759.57</v>
@@ -746,8 +786,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B24" s="2" t="n">
-        <v>42005</v>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
       </c>
       <c r="C24" t="n">
         <v>1727.41</v>
@@ -759,8 +801,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B25" s="2" t="n">
-        <v>42370</v>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
       </c>
       <c r="C25" t="n">
         <v>1683.66</v>
@@ -772,8 +816,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B26" s="2" t="n">
-        <v>42736</v>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
       </c>
       <c r="C26" t="n">
         <v>1617.25</v>
@@ -785,8 +831,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B27" s="2" t="n">
-        <v>43101</v>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
       </c>
       <c r="C27" t="n">
         <v>1634.63</v>
@@ -798,8 +846,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B28" s="2" t="n">
-        <v>43466</v>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
       </c>
       <c r="C28" t="n">
         <v>1609.62</v>
@@ -811,8 +861,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B29" s="2" t="n">
-        <v>43831</v>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>01/01/2020</t>
+        </is>
       </c>
       <c r="C29" t="n">
         <v>1563.93</v>
@@ -824,8 +876,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B30" s="2" t="n">
-        <v>44197</v>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
       </c>
       <c r="C30" t="n">
         <v>1649.58</v>
@@ -837,8 +891,10 @@
           <t>Sergipe</t>
         </is>
       </c>
-      <c r="B31" s="2" t="n">
-        <v>44562</v>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
       </c>
       <c r="C31" t="n">
         <v>1626.91</v>

--- a/Data/g7.1.xlsx
+++ b/Data/g7.1.xlsx
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2305.79</v>
+        <v>2343.71</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2343.69</v>
+        <v>2280.98</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2279.35</v>
+        <v>2243.6</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2241.86</v>
+        <v>2251.55</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2249.75</v>
+        <v>2273.95</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2272.89</v>
+        <v>2287.66</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2287.39</v>
+        <v>2242.61</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2242.29</v>
+        <v>2348</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2323.99</v>
+        <v>2363.38</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2363.02</v>
+        <v>2451.2</v>
       </c>
     </row>
     <row r="12">
@@ -608,11 +608,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1439.96</v>
+        <v>1450.6</v>
       </c>
     </row>
     <row r="13">
@@ -623,11 +623,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1450.6</v>
+        <v>1416.02</v>
       </c>
     </row>
     <row r="14">
@@ -638,11 +638,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1414.96</v>
+        <v>1413.59</v>
       </c>
     </row>
     <row r="15">
@@ -653,11 +653,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1412.34</v>
+        <v>1409.71</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +668,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1408.64</v>
+        <v>1418.22</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1414.34</v>
+        <v>1454.08</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1453.09</v>
+        <v>1412.31</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1411.13</v>
+        <v>1503.21</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1507.49</v>
+        <v>1518.26</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1515.93</v>
+        <v>1627.57</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1750.92</v>
+        <v>1759.57</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1759.57</v>
+        <v>1727.41</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1727.41</v>
+        <v>1683.66</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +803,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1683.66</v>
+        <v>1617.25</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +818,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1617.25</v>
+        <v>1634.63</v>
       </c>
     </row>
     <row r="27">
@@ -833,11 +833,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1634.63</v>
+        <v>1609.62</v>
       </c>
     </row>
     <row r="28">
@@ -848,11 +848,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1609.62</v>
+        <v>1563.93</v>
       </c>
     </row>
     <row r="29">
@@ -863,11 +863,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1563.93</v>
+        <v>1649.58</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1649.58</v>
+        <v>1626.91</v>
       </c>
     </row>
     <row r="31">
@@ -893,11 +893,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1626.91</v>
+        <v>1674.84</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g7.1.xlsx
+++ b/Data/g7.1.xlsx
@@ -458,11 +458,11 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2343.71</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="3">
@@ -473,11 +473,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2280.98</v>
+        <v>2258.15</v>
       </c>
     </row>
     <row r="4">
@@ -488,11 +488,11 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2243.6</v>
+        <v>2316.99</v>
       </c>
     </row>
     <row r="5">
@@ -503,11 +503,11 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2251.55</v>
+        <v>2356.25</v>
       </c>
     </row>
     <row r="6">
@@ -518,11 +518,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2273.95</v>
+        <v>2291.66</v>
       </c>
     </row>
     <row r="7">
@@ -533,11 +533,11 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2287.66</v>
+        <v>2261.01</v>
       </c>
     </row>
     <row r="8">
@@ -548,11 +548,11 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2242.61</v>
+        <v>2272.25</v>
       </c>
     </row>
     <row r="9">
@@ -563,11 +563,11 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2348</v>
+        <v>2298.54</v>
       </c>
     </row>
     <row r="10">
@@ -578,11 +578,11 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2363.38</v>
+        <v>2323.85</v>
       </c>
     </row>
     <row r="11">
@@ -593,11 +593,11 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2451.2</v>
+        <v>2273.25</v>
       </c>
     </row>
     <row r="12">
@@ -608,11 +608,11 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1450.6</v>
+        <v>1328.31</v>
       </c>
     </row>
     <row r="13">
@@ -623,11 +623,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1416.02</v>
+        <v>1388.83</v>
       </c>
     </row>
     <row r="14">
@@ -638,11 +638,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1413.59</v>
+        <v>1456.43</v>
       </c>
     </row>
     <row r="15">
@@ -653,11 +653,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1409.71</v>
+        <v>1468.71</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +668,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1418.22</v>
+        <v>1432.96</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1454.08</v>
+        <v>1431.13</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1412.31</v>
+        <v>1428.68</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1503.21</v>
+        <v>1438.08</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1518.26</v>
+        <v>1475.58</v>
       </c>
     </row>
     <row r="21">
@@ -743,11 +743,11 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1627.57</v>
+        <v>1434.5</v>
       </c>
     </row>
     <row r="22">
@@ -758,11 +758,11 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1759.57</v>
+        <v>1640.7</v>
       </c>
     </row>
     <row r="23">
@@ -773,11 +773,11 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1727.41</v>
+        <v>1695.4</v>
       </c>
     </row>
     <row r="24">
@@ -788,11 +788,11 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1683.66</v>
+        <v>1774.82</v>
       </c>
     </row>
     <row r="25">
@@ -803,11 +803,11 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1617.25</v>
+        <v>1785.98</v>
       </c>
     </row>
     <row r="26">
@@ -818,11 +818,11 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1634.63</v>
+        <v>1756.28</v>
       </c>
     </row>
     <row r="27">
@@ -833,11 +833,11 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1609.62</v>
+        <v>1715.48</v>
       </c>
     </row>
     <row r="28">
@@ -848,11 +848,11 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1563.93</v>
+        <v>1652.14</v>
       </c>
     </row>
     <row r="29">
@@ -863,11 +863,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2021</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1649.58</v>
+        <v>1674.45</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2022</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1626.91</v>
+        <v>1655.26</v>
       </c>
     </row>
     <row r="31">
@@ -893,11 +893,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>01/01/2023</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1674.84</v>
+        <v>1611.88</v>
       </c>
     </row>
   </sheetData>

--- a/Data/g7.1.xlsx
+++ b/Data/g7.1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C31"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -603,61 +603,61 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1328.31</v>
+        <v>2387.73</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1388.83</v>
+        <v>2411.49</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1456.43</v>
+        <v>2507.17</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Nordeste</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1468.71</v>
+        <v>2636.54</v>
       </c>
     </row>
     <row r="16">
@@ -668,11 +668,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>1432.96</v>
+        <v>1328.31</v>
       </c>
     </row>
     <row r="17">
@@ -683,11 +683,11 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2012</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>1431.13</v>
+        <v>1388.83</v>
       </c>
     </row>
     <row r="18">
@@ -698,11 +698,11 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2013</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1428.68</v>
+        <v>1456.43</v>
       </c>
     </row>
     <row r="19">
@@ -713,11 +713,11 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2014</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>1438.08</v>
+        <v>1468.71</v>
       </c>
     </row>
     <row r="20">
@@ -728,11 +728,11 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2015</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1475.58</v>
+        <v>1432.96</v>
       </c>
     </row>
     <row r="21">
@@ -743,131 +743,131 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>01/01/2020</t>
+          <t>01/01/2016</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>1434.5</v>
+        <v>1431.13</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>01/01/2011</t>
+          <t>01/01/2017</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>1640.7</v>
+        <v>1428.68</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>01/01/2012</t>
+          <t>01/01/2018</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>1695.4</v>
+        <v>1438.08</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>01/01/2013</t>
+          <t>01/01/2019</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1774.82</v>
+        <v>1475.58</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>01/01/2014</t>
+          <t>01/01/2020</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>1785.98</v>
+        <v>1434.5</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>01/01/2015</t>
+          <t>01/01/2021</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>1756.28</v>
+        <v>1530.41</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>01/01/2016</t>
+          <t>01/01/2022</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>1715.48</v>
+        <v>1550.01</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>01/01/2017</t>
+          <t>01/01/2023</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1652.14</v>
+        <v>1664.95</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sergipe</t>
+          <t>Nordeste</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>01/01/2018</t>
+          <t>01/01/2024</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>1674.45</v>
+        <v>1749.58</v>
       </c>
     </row>
     <row r="30">
@@ -878,11 +878,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>01/01/2019</t>
+          <t>01/01/2011</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1655.26</v>
+        <v>1640.7</v>
       </c>
     </row>
     <row r="31">
@@ -893,11 +893,191 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>01/01/2012</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1695.4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>01/01/2013</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1774.82</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>01/01/2014</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1785.98</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>01/01/2015</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1756.28</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>01/01/2016</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1715.48</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>01/01/2017</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>1652.14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>01/01/2018</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1674.45</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>01/01/2019</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1655.26</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
           <t>01/01/2020</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C39" t="n">
         <v>1611.88</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>01/01/2021</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1707.01</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>01/01/2022</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1690.73</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>01/01/2023</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>1747.3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Sergipe</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>01/01/2024</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>1829.8</v>
       </c>
     </row>
   </sheetData>
